--- a/Code/Results/Cases/Case_6_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_8/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.83475969732446</v>
+        <v>11.97733776779853</v>
       </c>
       <c r="C2">
-        <v>11.65959161867578</v>
+        <v>6.134657493739044</v>
       </c>
       <c r="D2">
-        <v>10.04581086326578</v>
+        <v>10.91599643074873</v>
       </c>
       <c r="E2">
-        <v>12.59850687441594</v>
+        <v>14.39286264603528</v>
       </c>
       <c r="F2">
-        <v>63.38607928757249</v>
+        <v>64.55504733636519</v>
       </c>
       <c r="G2">
-        <v>2.069546457056989</v>
+        <v>2.120711557021983</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.63336250704678</v>
+        <v>10.50052561970008</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.78450645723322</v>
+        <v>14.09038280857689</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.49146064804268</v>
+        <v>11.0828662595896</v>
       </c>
       <c r="C3">
-        <v>10.78980582430853</v>
+        <v>5.689633745859625</v>
       </c>
       <c r="D3">
-        <v>9.57762998688106</v>
+        <v>10.47508614576689</v>
       </c>
       <c r="E3">
-        <v>11.82219840563118</v>
+        <v>13.47375694291886</v>
       </c>
       <c r="F3">
-        <v>59.5428806478878</v>
+        <v>61.0119569491174</v>
       </c>
       <c r="G3">
-        <v>2.083590692354009</v>
+        <v>2.132050687123433</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.48482207371726</v>
+        <v>9.74756408233014</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.57121099402701</v>
+        <v>13.09505935209956</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.63143259924083</v>
+        <v>10.50892130623054</v>
       </c>
       <c r="C4">
-        <v>10.23488013649643</v>
+        <v>5.40617712789416</v>
       </c>
       <c r="D4">
-        <v>9.285264299440477</v>
+        <v>10.19844907635659</v>
       </c>
       <c r="E4">
-        <v>11.33420885581022</v>
+        <v>12.89158381504697</v>
       </c>
       <c r="F4">
-        <v>57.1149126057914</v>
+        <v>58.76907890591164</v>
       </c>
       <c r="G4">
-        <v>2.092326882120656</v>
+        <v>2.139137778769944</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.74957471587713</v>
+        <v>9.264481729929097</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.79420622377886</v>
+        <v>12.45585682989477</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2718207150002</v>
+        <v>10.26868472265599</v>
       </c>
       <c r="C5">
-        <v>10.00325886690408</v>
+        <v>5.287997245748293</v>
       </c>
       <c r="D5">
-        <v>9.164884399886315</v>
+        <v>10.08424775726394</v>
       </c>
       <c r="E5">
-        <v>11.13253223161396</v>
+        <v>12.64992448768642</v>
       </c>
       <c r="F5">
-        <v>56.10838766880826</v>
+        <v>57.83848908153816</v>
       </c>
       <c r="G5">
-        <v>2.095920949269033</v>
+        <v>2.142060578896604</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.44213419110535</v>
+        <v>9.062268676762136</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.4692496920653</v>
+        <v>12.18815857004449</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.21154753883343</v>
+        <v>10.22840667351458</v>
       </c>
       <c r="C6">
-        <v>9.96446063205739</v>
+        <v>5.268209583264565</v>
       </c>
       <c r="D6">
-        <v>9.14482087414539</v>
+        <v>10.06519678329103</v>
       </c>
       <c r="E6">
-        <v>11.0988758613602</v>
+        <v>12.60953325309955</v>
       </c>
       <c r="F6">
-        <v>55.94022751183341</v>
+        <v>57.68297652253478</v>
       </c>
       <c r="G6">
-        <v>2.096519947105375</v>
+        <v>2.142548099491622</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.39060419100416</v>
+        <v>9.028364371182901</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.41478112169959</v>
+        <v>12.14326714346188</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.62662011979095</v>
+        <v>10.50570725902729</v>
       </c>
       <c r="C7">
-        <v>10.23177891239652</v>
+        <v>5.40459424654977</v>
       </c>
       <c r="D7">
-        <v>9.283645819852563</v>
+        <v>10.19691483230714</v>
       </c>
       <c r="E7">
-        <v>11.33150029685512</v>
+        <v>12.88834247760054</v>
       </c>
       <c r="F7">
-        <v>57.1014072990699</v>
+        <v>58.75659526149531</v>
       </c>
       <c r="G7">
-        <v>2.092375208346343</v>
+        <v>2.139177051723929</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.74546046921485</v>
+        <v>9.26177645589091</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.78985776759859</v>
+        <v>12.45227598351848</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.37872271481844</v>
+        <v>11.67397475856709</v>
       </c>
       <c r="C8">
-        <v>11.36387209286594</v>
+        <v>5.983268081359251</v>
       </c>
       <c r="D8">
-        <v>9.88538788562213</v>
+        <v>10.76520462381924</v>
       </c>
       <c r="E8">
-        <v>12.33319048455775</v>
+        <v>14.0796805454208</v>
       </c>
       <c r="F8">
-        <v>62.07506242073882</v>
+        <v>63.34753578736981</v>
       </c>
       <c r="G8">
-        <v>2.074369025094647</v>
+        <v>2.124597505534454</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.24341072274506</v>
+        <v>10.24513002872042</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.37264282348202</v>
+        <v>13.75292020471367</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.54972855913481</v>
+        <v>13.77543987933566</v>
       </c>
       <c r="C9">
-        <v>13.43039129771895</v>
+        <v>7.042195552352347</v>
       </c>
       <c r="D9">
-        <v>11.02822016508821</v>
+        <v>11.83275719842151</v>
       </c>
       <c r="E9">
-        <v>14.20914141896073</v>
+        <v>16.35326472918925</v>
       </c>
       <c r="F9">
-        <v>71.29754251701323</v>
+        <v>71.80938917414603</v>
       </c>
       <c r="G9">
-        <v>2.03966566896511</v>
+        <v>2.096827741158237</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.95621093961053</v>
+        <v>12.01538323940421</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.23592521368208</v>
+        <v>16.08883623508978</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.74212374899741</v>
+        <v>15.21476714624749</v>
       </c>
       <c r="C10">
-        <v>14.87479372296354</v>
+        <v>7.782153434094333</v>
       </c>
       <c r="D10">
-        <v>11.8499151177346</v>
+        <v>12.59004578615386</v>
       </c>
       <c r="E10">
-        <v>15.54802728382476</v>
+        <v>18.02192656268794</v>
       </c>
       <c r="F10">
-        <v>77.78323128050889</v>
+        <v>77.70142862244131</v>
       </c>
       <c r="G10">
-        <v>2.014063698307783</v>
+        <v>2.076657032692514</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.83443742250909</v>
+        <v>13.22997995260854</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.21511141642622</v>
+        <v>17.68693812900229</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.71633168986173</v>
+        <v>15.84972949724064</v>
       </c>
       <c r="C11">
-        <v>15.52128212608997</v>
+        <v>8.11268264467301</v>
       </c>
       <c r="D11">
-        <v>12.22163345767184</v>
+        <v>12.92943981067934</v>
       </c>
       <c r="E11">
-        <v>16.20590663899625</v>
+        <v>18.75687926974374</v>
       </c>
       <c r="F11">
-        <v>80.6838653590394</v>
+        <v>80.31603855655462</v>
       </c>
       <c r="G11">
-        <v>2.002261833098447</v>
+        <v>2.067460546077844</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.66998646551225</v>
+        <v>13.76654357095911</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.09455374582415</v>
+        <v>18.39164402955547</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.08259708744935</v>
+        <v>16.08760988331824</v>
       </c>
       <c r="C12">
-        <v>15.76512941536407</v>
+        <v>8.23718344577067</v>
       </c>
       <c r="D12">
-        <v>12.36230871933488</v>
+        <v>13.05731941351194</v>
       </c>
       <c r="E12">
-        <v>16.45317058521794</v>
+        <v>19.03204244416115</v>
       </c>
       <c r="F12">
-        <v>81.77664713423516</v>
+        <v>81.29730418218628</v>
       </c>
       <c r="G12">
-        <v>1.997756762364425</v>
+        <v>2.063968157510737</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.98429241477304</v>
+        <v>13.96769163546948</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.42519448748429</v>
+        <v>18.65561863000506</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.00382071220495</v>
+        <v>16.03648729382208</v>
       </c>
       <c r="C13">
-        <v>15.71264533443741</v>
+        <v>8.210395767657056</v>
       </c>
       <c r="D13">
-        <v>12.33201160043556</v>
+        <v>13.02980502903734</v>
       </c>
       <c r="E13">
-        <v>16.39999257976676</v>
+        <v>18.97291546388178</v>
       </c>
       <c r="F13">
-        <v>81.5415183964807</v>
+        <v>81.08635180796303</v>
       </c>
       <c r="G13">
-        <v>1.99872885567765</v>
+        <v>2.064720866463911</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.91668325464191</v>
+        <v>13.92445687378809</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.35407997417655</v>
+        <v>18.59888953312668</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.74651323056981</v>
+        <v>15.86934973138428</v>
       </c>
       <c r="C14">
-        <v>15.54135931912964</v>
+        <v>8.12293737250079</v>
       </c>
       <c r="D14">
-        <v>12.23320719815636</v>
+        <v>12.9399727763533</v>
       </c>
       <c r="E14">
-        <v>16.22628361793151</v>
+        <v>18.77957817161738</v>
       </c>
       <c r="F14">
-        <v>80.7738716775763</v>
+        <v>80.39694058726828</v>
       </c>
       <c r="G14">
-        <v>2.001892006662285</v>
+        <v>2.067173466431338</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.69588271377428</v>
+        <v>13.78313135222533</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.12179957235322</v>
+        <v>18.41341713213126</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.5885827826615</v>
+        <v>15.76664800604841</v>
       </c>
       <c r="C15">
-        <v>15.43633457951754</v>
+        <v>8.069286993240137</v>
       </c>
       <c r="D15">
-        <v>12.17268271096613</v>
+        <v>12.8848675710575</v>
       </c>
       <c r="E15">
-        <v>16.11965425703965</v>
+        <v>18.66075398731996</v>
       </c>
       <c r="F15">
-        <v>80.30298570897543</v>
+        <v>79.97352809803716</v>
       </c>
       <c r="G15">
-        <v>2.003824394531094</v>
+        <v>2.068674245600662</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.56038299508143</v>
+        <v>13.69630842744512</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.97923098092396</v>
+        <v>18.2994449260452</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.67804682401907</v>
+        <v>15.17289558078011</v>
       </c>
       <c r="C16">
-        <v>14.83237655770961</v>
+        <v>7.760447530205091</v>
       </c>
       <c r="D16">
-        <v>11.82559748947509</v>
+        <v>12.56777020054769</v>
       </c>
       <c r="E16">
-        <v>15.50474676499054</v>
+        <v>17.97343662052919</v>
       </c>
       <c r="F16">
-        <v>77.59278847629942</v>
+        <v>77.52928385027968</v>
       </c>
       <c r="G16">
-        <v>2.014830746714262</v>
+        <v>2.077257061193587</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.77950263849482</v>
+        <v>13.19461432004787</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.1572676352343</v>
+        <v>17.64046206515653</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.11398423556473</v>
+        <v>14.80376466611867</v>
       </c>
       <c r="C17">
-        <v>14.45952270957457</v>
+        <v>7.569567465413329</v>
       </c>
       <c r="D17">
-        <v>11.61227335396409</v>
+        <v>12.37199195073867</v>
       </c>
       <c r="E17">
-        <v>15.15659747459434</v>
+        <v>17.54582448079816</v>
       </c>
       <c r="F17">
-        <v>75.91839254372587</v>
+        <v>76.01336781054931</v>
       </c>
       <c r="G17">
-        <v>2.021534101306508</v>
+        <v>2.082512438334678</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.29602819858914</v>
+        <v>12.88292556563641</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.64807280462345</v>
+        <v>17.23070581579702</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.78732649799973</v>
+        <v>14.58956811532533</v>
       </c>
       <c r="C18">
-        <v>14.24403252234411</v>
+        <v>7.459191558835204</v>
       </c>
       <c r="D18">
-        <v>11.48936378760048</v>
+        <v>12.25889836979653</v>
       </c>
       <c r="E18">
-        <v>14.95776664309612</v>
+        <v>17.29758023481766</v>
       </c>
       <c r="F18">
-        <v>74.95052893442913</v>
+        <v>75.13521948563977</v>
       </c>
       <c r="G18">
-        <v>2.025376019177985</v>
+        <v>2.08553370954894</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.01612800012887</v>
+        <v>12.70213052624843</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.35318703946616</v>
+        <v>16.99290613683138</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.67632518817191</v>
+        <v>14.51671368361317</v>
       </c>
       <c r="C19">
-        <v>14.17087828222905</v>
+        <v>7.42171347088723</v>
       </c>
       <c r="D19">
-        <v>11.44770692949113</v>
+        <v>12.22052079748948</v>
       </c>
       <c r="E19">
-        <v>14.89031366279447</v>
+        <v>17.21312608639572</v>
       </c>
       <c r="F19">
-        <v>74.62196330544396</v>
+        <v>74.83680729843704</v>
       </c>
       <c r="G19">
-        <v>2.026674850987305</v>
+        <v>2.086556599196455</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.92102937115683</v>
+        <v>12.64064809259155</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.25298145066709</v>
+        <v>16.91201830394092</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.17425530712376</v>
+        <v>14.84325218268718</v>
       </c>
       <c r="C20">
-        <v>14.49931700814611</v>
+        <v>7.589946270535595</v>
       </c>
       <c r="D20">
-        <v>11.63500257758261</v>
+        <v>12.39288271325197</v>
       </c>
       <c r="E20">
-        <v>15.19333580874031</v>
+        <v>17.59157965794301</v>
       </c>
       <c r="F20">
-        <v>76.09712137583705</v>
+        <v>76.17538095390945</v>
       </c>
       <c r="G20">
-        <v>2.020822023287848</v>
+        <v>2.081953194632154</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.3476789966294</v>
+        <v>12.91626091400081</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.70248140422706</v>
+        <v>17.27454216605575</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.82215641376655</v>
+        <v>15.91850928327949</v>
       </c>
       <c r="C21">
-        <v>15.59169134016906</v>
+        <v>8.148642185765144</v>
       </c>
       <c r="D21">
-        <v>12.2622288013523</v>
+        <v>12.96637522973358</v>
       </c>
       <c r="E21">
-        <v>16.27735266114033</v>
+        <v>18.83644863393385</v>
       </c>
       <c r="F21">
-        <v>80.99948655037794</v>
+        <v>80.5996711031712</v>
       </c>
       <c r="G21">
-        <v>2.000964010611415</v>
+        <v>2.06645340670215</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.76078864272251</v>
+        <v>13.82469511905692</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.19008513891023</v>
+        <v>18.4679702967433</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.8841501333564</v>
+        <v>16.60645695773673</v>
       </c>
       <c r="C22">
-        <v>16.30034770163545</v>
+        <v>8.51003778874909</v>
       </c>
       <c r="D22">
-        <v>12.67179828461149</v>
+        <v>13.33750929496243</v>
       </c>
       <c r="E22">
-        <v>16.99414544335846</v>
+        <v>19.63188278239119</v>
       </c>
       <c r="F22">
-        <v>84.17170303206521</v>
+        <v>83.44016462498973</v>
       </c>
       <c r="G22">
-        <v>1.987767607736301</v>
+        <v>2.056261814031208</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.67248439837682</v>
+        <v>14.40668506156664</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.14880035758114</v>
+        <v>19.23133008851308</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.31845618191572</v>
+        <v>16.24053603152113</v>
       </c>
       <c r="C23">
-        <v>15.9223924082383</v>
+        <v>8.317418265005893</v>
       </c>
       <c r="D23">
-        <v>12.45314972076045</v>
+        <v>13.13972678166511</v>
       </c>
       <c r="E23">
-        <v>16.61237553381323</v>
+        <v>19.20888666917904</v>
       </c>
       <c r="F23">
-        <v>82.48091968402427</v>
+        <v>81.92855194662813</v>
       </c>
       <c r="G23">
-        <v>1.994835977184497</v>
+        <v>2.061709459614112</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.18674396537057</v>
+        <v>14.09704327970417</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.63811485529757</v>
+        <v>18.82531171656459</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.14701418886273</v>
+        <v>14.82540605892164</v>
       </c>
       <c r="C24">
-        <v>14.48132957049488</v>
+        <v>7.580735010515628</v>
       </c>
       <c r="D24">
-        <v>11.62472754119589</v>
+        <v>12.3834396820006</v>
       </c>
       <c r="E24">
-        <v>15.17672894918446</v>
+        <v>17.57090125494859</v>
       </c>
       <c r="F24">
-        <v>76.01633447367853</v>
+        <v>76.10215550064882</v>
       </c>
       <c r="G24">
-        <v>2.021143989937886</v>
+        <v>2.082206028562819</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.32433377136055</v>
+        <v>12.90119500883249</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.6778899956816</v>
+        <v>17.25473070717229</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.71797724534984</v>
+        <v>13.22618820034199</v>
       </c>
       <c r="C25">
-        <v>12.88592320698371</v>
+        <v>6.763064096366413</v>
       </c>
       <c r="D25">
-        <v>10.72267369873673</v>
+        <v>11.54888692468271</v>
       </c>
       <c r="E25">
-        <v>13.71064854783924</v>
+        <v>15.71546294858273</v>
       </c>
       <c r="F25">
-        <v>68.85696839491241</v>
+        <v>69.57828811489625</v>
       </c>
       <c r="G25">
-        <v>2.049033434133974</v>
+        <v>2.104278039920084</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.24429325239664</v>
+        <v>11.55240990542443</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.48499532703175</v>
+        <v>15.47866469157185</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.97733776779853</v>
+        <v>11.80560273394369</v>
       </c>
       <c r="C2">
-        <v>6.134657493739044</v>
+        <v>8.627553970126216</v>
       </c>
       <c r="D2">
-        <v>10.91599643074873</v>
+        <v>4.825693281406424</v>
       </c>
       <c r="E2">
-        <v>14.39286264603528</v>
+        <v>14.33959083242499</v>
       </c>
       <c r="F2">
-        <v>64.55504733636519</v>
+        <v>24.39207697562912</v>
       </c>
       <c r="G2">
-        <v>2.120711557021983</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>33.79578832334514</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.824237591005402</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.35443294831729</v>
       </c>
       <c r="K2">
-        <v>10.50052561970008</v>
+        <v>17.92089577160149</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.09038280857689</v>
+        <v>11.34080354707531</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.50513654224411</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.0828662595896</v>
+        <v>11.07509092586356</v>
       </c>
       <c r="C3">
-        <v>5.689633745859625</v>
+        <v>8.087914460324372</v>
       </c>
       <c r="D3">
-        <v>10.47508614576689</v>
+        <v>4.771598756834506</v>
       </c>
       <c r="E3">
-        <v>13.47375694291886</v>
+        <v>13.48640061168929</v>
       </c>
       <c r="F3">
-        <v>61.0119569491174</v>
+        <v>23.74493053302385</v>
       </c>
       <c r="G3">
-        <v>2.132050687123433</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>32.82383520731209</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.041804549612432</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.27665861901554</v>
       </c>
       <c r="K3">
-        <v>9.74756408233014</v>
+        <v>17.7895138884033</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.09505935209956</v>
+        <v>10.70554994463683</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.56680826890957</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.50892130623054</v>
+        <v>10.60045911672212</v>
       </c>
       <c r="C4">
-        <v>5.40617712789416</v>
+        <v>7.743598532812575</v>
       </c>
       <c r="D4">
-        <v>10.19844907635659</v>
+        <v>4.737619870212646</v>
       </c>
       <c r="E4">
-        <v>12.89158381504697</v>
+        <v>12.94709756264182</v>
       </c>
       <c r="F4">
-        <v>58.76907890591164</v>
+        <v>23.34851163133738</v>
       </c>
       <c r="G4">
-        <v>2.139137778769944</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>32.22546879580579</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.180557584762361</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.23215253621205</v>
       </c>
       <c r="K4">
-        <v>9.264481729929097</v>
+        <v>17.71189692367785</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.45585682989477</v>
+        <v>10.29638012746034</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.96054651868722</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.26868472265599</v>
+        <v>10.39814444114699</v>
       </c>
       <c r="C5">
-        <v>5.287997245748293</v>
+        <v>7.608468508728166</v>
       </c>
       <c r="D5">
-        <v>10.08424775726394</v>
+        <v>4.724769326695241</v>
       </c>
       <c r="E5">
-        <v>12.64992448768642</v>
+        <v>12.72265955535465</v>
       </c>
       <c r="F5">
-        <v>57.83848908153816</v>
+        <v>23.17146980700957</v>
       </c>
       <c r="G5">
-        <v>2.142060578896604</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>31.9529093472758</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.241328138693726</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.20954084481599</v>
       </c>
       <c r="K5">
-        <v>9.062268676762136</v>
+        <v>17.66905720197148</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.18815857004449</v>
+        <v>10.12624776477393</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.70653143513514</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.22840667351458</v>
+        <v>10.36128591597228</v>
       </c>
       <c r="C6">
-        <v>5.268209583264565</v>
+        <v>7.596178897467469</v>
       </c>
       <c r="D6">
-        <v>10.06519678329103</v>
+        <v>4.724086304929499</v>
       </c>
       <c r="E6">
-        <v>12.60953325309955</v>
+        <v>12.68397174576538</v>
       </c>
       <c r="F6">
-        <v>57.68297652253478</v>
+        <v>23.12265173270474</v>
       </c>
       <c r="G6">
-        <v>2.142548099491622</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>31.87269538872826</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.255231060538727</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.19938688141394</v>
       </c>
       <c r="K6">
-        <v>9.028364371182901</v>
+        <v>17.64737321092933</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.14326714346188</v>
+        <v>10.09938722962978</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.66468451866349</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.50570725902729</v>
+        <v>10.5900927979787</v>
       </c>
       <c r="C7">
-        <v>5.40459424654977</v>
+        <v>7.769405688747422</v>
       </c>
       <c r="D7">
-        <v>10.19691483230714</v>
+        <v>4.741472042823191</v>
       </c>
       <c r="E7">
-        <v>12.88834247760054</v>
+        <v>12.94086837682459</v>
       </c>
       <c r="F7">
-        <v>58.75659526149531</v>
+        <v>23.29347779043078</v>
       </c>
       <c r="G7">
-        <v>2.139177051723929</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>32.12723855797541</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.191300825616778</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.21429515101924</v>
       </c>
       <c r="K7">
-        <v>9.26177645589091</v>
+        <v>17.67151188528659</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.45227598351848</v>
+        <v>10.29860327209649</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.95925996759445</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.67397475856709</v>
+        <v>11.5497230627268</v>
       </c>
       <c r="C8">
-        <v>5.983268081359251</v>
+        <v>8.478047417575841</v>
       </c>
       <c r="D8">
-        <v>10.76520462381924</v>
+        <v>4.812679797093474</v>
       </c>
       <c r="E8">
-        <v>14.0796805454208</v>
+        <v>14.04477488494614</v>
       </c>
       <c r="F8">
-        <v>63.34753578736981</v>
+        <v>24.10150241279531</v>
       </c>
       <c r="G8">
-        <v>2.124597505534454</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>33.34046567041006</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.911133536960498</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.30401508597379</v>
       </c>
       <c r="K8">
-        <v>10.24513002872042</v>
+        <v>17.82292324085725</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.75292020471367</v>
+        <v>11.13137135123851</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.19038738862526</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.77543987933566</v>
+        <v>13.23691298945167</v>
       </c>
       <c r="C9">
-        <v>7.042195552352347</v>
+        <v>9.721233721090409</v>
       </c>
       <c r="D9">
-        <v>11.83275719842151</v>
+        <v>4.938721394261304</v>
       </c>
       <c r="E9">
-        <v>16.35326472918925</v>
+        <v>16.14385818714782</v>
       </c>
       <c r="F9">
-        <v>71.80938917414603</v>
+        <v>25.77646663932641</v>
       </c>
       <c r="G9">
-        <v>2.096827741158237</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>35.85777435273932</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.569157860233782</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.53745116147534</v>
       </c>
       <c r="K9">
-        <v>12.01538323940421</v>
+        <v>18.21507461908928</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.08883623508978</v>
+        <v>12.60401719441325</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.36424055482415</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.21476714624749</v>
+        <v>14.34801654031635</v>
       </c>
       <c r="C10">
-        <v>7.782153434094333</v>
+        <v>10.58493051819064</v>
       </c>
       <c r="D10">
-        <v>12.59004578615386</v>
+        <v>5.029732526832412</v>
       </c>
       <c r="E10">
-        <v>18.02192656268794</v>
+        <v>17.73684583820524</v>
       </c>
       <c r="F10">
-        <v>77.70142862244131</v>
+        <v>26.97555280435868</v>
       </c>
       <c r="G10">
-        <v>2.076657032692514</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>37.63939863967965</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.925455149918104</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.71807385354255</v>
       </c>
       <c r="K10">
-        <v>13.22997995260854</v>
+        <v>18.5009329440008</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.68693812900229</v>
+        <v>13.59378181337611</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.82108218091713</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.84972949724064</v>
+        <v>14.81737411624543</v>
       </c>
       <c r="C11">
-        <v>8.11268264467301</v>
+        <v>10.99777545802771</v>
       </c>
       <c r="D11">
-        <v>12.92943981067934</v>
+        <v>5.077575115301695</v>
       </c>
       <c r="E11">
-        <v>18.75687926974374</v>
+        <v>18.42873237772547</v>
       </c>
       <c r="F11">
-        <v>80.31603855655462</v>
+        <v>27.44568654799201</v>
       </c>
       <c r="G11">
-        <v>2.067460546077844</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>38.31419436663074</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.088988124687176</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.77765113765592</v>
       </c>
       <c r="K11">
-        <v>13.76654357095911</v>
+        <v>18.57430577490741</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.39164402955547</v>
+        <v>14.0293038585149</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.45644026842298</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.08760988331824</v>
+        <v>14.99636803587939</v>
       </c>
       <c r="C12">
-        <v>8.23718344577067</v>
+        <v>11.13416977416486</v>
       </c>
       <c r="D12">
-        <v>13.05731941351194</v>
+        <v>5.091749020868584</v>
       </c>
       <c r="E12">
-        <v>19.03204244416115</v>
+        <v>18.68858030445641</v>
       </c>
       <c r="F12">
-        <v>81.29730418218628</v>
+        <v>27.66260117494225</v>
       </c>
       <c r="G12">
-        <v>2.063968157510737</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.63862475978177</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.148296199361346</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.81515535565605</v>
       </c>
       <c r="K12">
-        <v>13.96769163546948</v>
+        <v>18.63528215244367</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.65561863000506</v>
+        <v>14.18820367888865</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.69153726433579</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.03648729382208</v>
+        <v>14.95898469567015</v>
       </c>
       <c r="C13">
-        <v>8.210395767657056</v>
+        <v>11.10133120367212</v>
       </c>
       <c r="D13">
-        <v>13.02980502903734</v>
+        <v>5.087925612155489</v>
       </c>
       <c r="E13">
-        <v>18.97291546388178</v>
+        <v>18.63317450171421</v>
       </c>
       <c r="F13">
-        <v>81.08635180796303</v>
+        <v>27.62368338069653</v>
       </c>
       <c r="G13">
-        <v>2.064720866463911</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>38.58260986829105</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.135041189691651</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.80990786663983</v>
       </c>
       <c r="K13">
-        <v>13.92445687378809</v>
+        <v>18.62861910801014</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.59888953312668</v>
+        <v>14.15350229997019</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.64083632320822</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.86934973138428</v>
+        <v>14.83260298746656</v>
       </c>
       <c r="C14">
-        <v>8.12293737250079</v>
+        <v>11.00751490316943</v>
       </c>
       <c r="D14">
-        <v>12.9399727763533</v>
+        <v>5.078414013745537</v>
       </c>
       <c r="E14">
-        <v>18.77957817161738</v>
+        <v>18.45035301828592</v>
       </c>
       <c r="F14">
-        <v>80.39694058726828</v>
+        <v>27.46686349616434</v>
       </c>
       <c r="G14">
-        <v>2.067173466431338</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>38.34680685704269</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.093652558065298</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.78194098622102</v>
       </c>
       <c r="K14">
-        <v>13.78313135222533</v>
+        <v>18.5820761955673</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.41341713213126</v>
+        <v>14.04217443507</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.47575645547364</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.76664800604841</v>
+        <v>14.7527023155332</v>
       </c>
       <c r="C15">
-        <v>8.069286993240137</v>
+        <v>10.95690992247687</v>
       </c>
       <c r="D15">
-        <v>12.8848675710575</v>
+        <v>5.074100856926276</v>
       </c>
       <c r="E15">
-        <v>18.66075398731996</v>
+        <v>18.33708595601253</v>
       </c>
       <c r="F15">
-        <v>79.97352809803716</v>
+        <v>27.3552648905021</v>
       </c>
       <c r="G15">
-        <v>2.068674245600662</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>38.17472693654481</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.069367338837699</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.75923804597801</v>
       </c>
       <c r="K15">
-        <v>13.69630842744512</v>
+        <v>18.54079859582832</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.2994449260452</v>
+        <v>13.97482021226411</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>18.37460711299055</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17289558078011</v>
+        <v>14.2996746216596</v>
       </c>
       <c r="C16">
-        <v>7.760447530205091</v>
+        <v>10.6188044927182</v>
       </c>
       <c r="D16">
-        <v>12.56777020054769</v>
+        <v>5.039369428502862</v>
       </c>
       <c r="E16">
-        <v>17.97343662052919</v>
+        <v>17.68453634011396</v>
       </c>
       <c r="F16">
-        <v>77.52928385027968</v>
+        <v>26.81244775540894</v>
       </c>
       <c r="G16">
-        <v>2.077257061193587</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>37.35982860485935</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.923145680042984</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.66629540723823</v>
       </c>
       <c r="K16">
-        <v>13.19461432004787</v>
+        <v>18.38718409237904</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.64046206515653</v>
+        <v>13.57536264942558</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.78338935717738</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.80376466611867</v>
+        <v>14.01487797327518</v>
       </c>
       <c r="C17">
-        <v>7.569567465413329</v>
+        <v>10.40823539744787</v>
       </c>
       <c r="D17">
-        <v>12.37199195073867</v>
+        <v>5.017791399557484</v>
       </c>
       <c r="E17">
-        <v>17.54582448079816</v>
+        <v>17.27678907646201</v>
       </c>
       <c r="F17">
-        <v>76.01336781054931</v>
+        <v>26.4787134566355</v>
       </c>
       <c r="G17">
-        <v>2.082512438334678</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>36.85809022509856</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.833113274066459</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.61048066083132</v>
       </c>
       <c r="K17">
-        <v>12.88292556563641</v>
+        <v>18.29432139966771</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.23070581579702</v>
+        <v>13.32510586433736</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.41315736667979</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.58956811532533</v>
+        <v>13.85386534993384</v>
       </c>
       <c r="C18">
-        <v>7.459191558835204</v>
+        <v>10.26682746548437</v>
       </c>
       <c r="D18">
-        <v>12.25889836979653</v>
+        <v>5.001397707492978</v>
       </c>
       <c r="E18">
-        <v>17.29758023481766</v>
+        <v>17.0415302698253</v>
       </c>
       <c r="F18">
-        <v>75.13521948563977</v>
+        <v>26.32736606992141</v>
       </c>
       <c r="G18">
-        <v>2.08553370954894</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>36.6416075684082</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.777481584913164</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.59344856703521</v>
       </c>
       <c r="K18">
-        <v>12.70213052624843</v>
+        <v>18.27464170213609</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.99290613683138</v>
+        <v>13.17599291356572</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.19601957783558</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.51671368361317</v>
+        <v>13.79480791813725</v>
       </c>
       <c r="C19">
-        <v>7.42171347088723</v>
+        <v>10.23345878162437</v>
       </c>
       <c r="D19">
-        <v>12.22052079748948</v>
+        <v>4.998823406615779</v>
       </c>
       <c r="E19">
-        <v>17.21312608639572</v>
+        <v>16.95983002188546</v>
       </c>
       <c r="F19">
-        <v>74.83680729843704</v>
+        <v>26.24463160979274</v>
       </c>
       <c r="G19">
-        <v>2.086556599196455</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>36.5122037009452</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.761392037933488</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.57647325357328</v>
       </c>
       <c r="K19">
-        <v>12.64064809259155</v>
+        <v>18.24243979607481</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.91201830394092</v>
+        <v>13.127682495606</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.12308942839203</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.84325218268718</v>
+        <v>14.04587124532912</v>
       </c>
       <c r="C20">
-        <v>7.589946270535595</v>
+        <v>10.42928906948676</v>
       </c>
       <c r="D20">
-        <v>12.39288271325197</v>
+        <v>5.019792977967706</v>
       </c>
       <c r="E20">
-        <v>17.59157965794301</v>
+        <v>17.32063794719533</v>
       </c>
       <c r="F20">
-        <v>76.17538095390945</v>
+        <v>26.51744572467005</v>
       </c>
       <c r="G20">
-        <v>2.081953194632154</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>36.91722753349152</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.842418212034078</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.61752174217039</v>
       </c>
       <c r="K20">
-        <v>12.91626091400081</v>
+        <v>18.30675471741344</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.27454216605575</v>
+        <v>13.35169143914489</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.45275031597642</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.91850928327949</v>
+        <v>14.86422304243639</v>
       </c>
       <c r="C21">
-        <v>8.148642185765144</v>
+        <v>11.05507704126425</v>
       </c>
       <c r="D21">
-        <v>12.96637522973358</v>
+        <v>5.085573023314667</v>
       </c>
       <c r="E21">
-        <v>18.83644863393385</v>
+        <v>18.50203811245004</v>
       </c>
       <c r="F21">
-        <v>80.5996711031712</v>
+        <v>27.46922989856636</v>
       </c>
       <c r="G21">
-        <v>2.06645340670215</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>38.33847608393248</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.108919263119279</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.77409796502824</v>
       </c>
       <c r="K21">
-        <v>13.82469511905692</v>
+        <v>18.55926527448227</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.4679702967433</v>
+        <v>14.07838129619666</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.52578722699975</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.60645695773673</v>
+        <v>15.38379542317488</v>
       </c>
       <c r="C22">
-        <v>8.51003778874909</v>
+        <v>11.42859516708911</v>
       </c>
       <c r="D22">
-        <v>13.33750929496243</v>
+        <v>5.122124560656548</v>
       </c>
       <c r="E22">
-        <v>19.63188278239119</v>
+        <v>19.25304518213454</v>
       </c>
       <c r="F22">
-        <v>83.44016462498973</v>
+        <v>28.14391923539327</v>
       </c>
       <c r="G22">
-        <v>2.056261814031208</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>39.35929632971663</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.277975021578282</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.90080297577454</v>
       </c>
       <c r="K22">
-        <v>14.40668506156664</v>
+        <v>18.77516045112857</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.23133008851308</v>
+        <v>14.53200475459894</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.20093305886249</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.24053603152113</v>
+        <v>15.11522386046986</v>
       </c>
       <c r="C23">
-        <v>8.317418265005893</v>
+        <v>11.2063525915246</v>
       </c>
       <c r="D23">
-        <v>13.13972678166511</v>
+        <v>5.097449916147193</v>
       </c>
       <c r="E23">
-        <v>19.20888666917904</v>
+        <v>18.85688757343256</v>
       </c>
       <c r="F23">
-        <v>81.92855194662813</v>
+        <v>27.83645420219252</v>
       </c>
       <c r="G23">
-        <v>2.061709459614112</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>38.90801607045039</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.184578490955836</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.8520839974891</v>
       </c>
       <c r="K23">
-        <v>14.09704327970417</v>
+        <v>18.70334776771596</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.82531171656459</v>
+        <v>14.28734929485652</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.84109172628746</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.82540605892164</v>
+        <v>14.04303498588666</v>
       </c>
       <c r="C24">
-        <v>7.580735010515628</v>
+        <v>10.37981852961629</v>
       </c>
       <c r="D24">
-        <v>12.3834396820006</v>
+        <v>5.010689052117423</v>
       </c>
       <c r="E24">
-        <v>17.57090125494859</v>
+        <v>17.30507948585577</v>
       </c>
       <c r="F24">
-        <v>76.10215550064882</v>
+        <v>26.58574633447061</v>
       </c>
       <c r="G24">
-        <v>2.082206028562819</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>37.04322316101604</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.831554062231263</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.64522837428244</v>
       </c>
       <c r="K24">
-        <v>12.90119500883249</v>
+        <v>18.37131298294708</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.25473070717229</v>
+        <v>13.33286250416369</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.43195539553408</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.22618820034199</v>
+        <v>12.7908934358396</v>
       </c>
       <c r="C25">
-        <v>6.763064096366413</v>
+        <v>9.437680652965737</v>
       </c>
       <c r="D25">
-        <v>11.54888692468271</v>
+        <v>4.913043101274392</v>
       </c>
       <c r="E25">
-        <v>15.71546294858273</v>
+        <v>15.54332873372564</v>
       </c>
       <c r="F25">
-        <v>69.57828811489625</v>
+        <v>25.23680770302311</v>
       </c>
       <c r="G25">
-        <v>2.104278039920084</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>35.02451969315835</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.542955876462026</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.44067613449853</v>
       </c>
       <c r="K25">
-        <v>11.55240990542443</v>
+        <v>18.03654353494892</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.47866469157185</v>
+        <v>12.22920852128948</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>15.80432133165485</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.80560273394369</v>
+        <v>11.71880726379704</v>
       </c>
       <c r="C2">
-        <v>8.627553970126216</v>
+        <v>9.174458131241312</v>
       </c>
       <c r="D2">
-        <v>4.825693281406424</v>
+        <v>4.89674335910618</v>
       </c>
       <c r="E2">
-        <v>14.33959083242499</v>
+        <v>14.26912969234447</v>
       </c>
       <c r="F2">
-        <v>24.39207697562912</v>
+        <v>22.7457510782999</v>
       </c>
       <c r="G2">
-        <v>33.79578832334514</v>
+        <v>30.44079586622594</v>
       </c>
       <c r="I2">
-        <v>2.824237591005402</v>
+        <v>2.703277424167147</v>
       </c>
       <c r="J2">
-        <v>11.35443294831729</v>
+        <v>11.070625485363</v>
       </c>
       <c r="K2">
-        <v>17.92089577160149</v>
+        <v>16.49343992085537</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.76278296056484</v>
       </c>
       <c r="M2">
-        <v>11.34080354707531</v>
+        <v>10.72475062037694</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.50513654224411</v>
+        <v>11.49456841892754</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.58299391584803</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.07509092586356</v>
+        <v>11.03215568756426</v>
       </c>
       <c r="C3">
-        <v>8.087914460324372</v>
+        <v>8.526810382806092</v>
       </c>
       <c r="D3">
-        <v>4.771598756834506</v>
+        <v>4.802199329424594</v>
       </c>
       <c r="E3">
-        <v>13.48640061168929</v>
+        <v>13.42876180301815</v>
       </c>
       <c r="F3">
-        <v>23.74493053302385</v>
+        <v>22.26776225139491</v>
       </c>
       <c r="G3">
-        <v>32.82383520731209</v>
+        <v>29.81221031088544</v>
       </c>
       <c r="I3">
-        <v>3.041804549612432</v>
+        <v>2.890048393398499</v>
       </c>
       <c r="J3">
-        <v>11.27665861901554</v>
+        <v>11.00532845431814</v>
       </c>
       <c r="K3">
-        <v>17.7895138884033</v>
+        <v>16.48830895650464</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.85671028535381</v>
       </c>
       <c r="M3">
-        <v>10.70554994463683</v>
+        <v>10.62501819916461</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.56680826890957</v>
+        <v>10.85162353471543</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.64211594460322</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.60045911672212</v>
+        <v>10.58654148105282</v>
       </c>
       <c r="C4">
-        <v>7.743598532812575</v>
+        <v>8.111624442792625</v>
       </c>
       <c r="D4">
-        <v>4.737619870212646</v>
+        <v>4.743306653907666</v>
       </c>
       <c r="E4">
-        <v>12.94709756264182</v>
+        <v>12.89786392894428</v>
       </c>
       <c r="F4">
-        <v>23.34851163133738</v>
+        <v>21.97613231206205</v>
       </c>
       <c r="G4">
-        <v>32.22546879580579</v>
+        <v>29.43310076376652</v>
       </c>
       <c r="I4">
-        <v>3.180557584762361</v>
+        <v>3.00959927722639</v>
       </c>
       <c r="J4">
-        <v>11.23215253621205</v>
+        <v>10.96555772762631</v>
       </c>
       <c r="K4">
-        <v>17.71189692367785</v>
+        <v>16.48709901529888</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.91189477987036</v>
       </c>
       <c r="M4">
-        <v>10.29638012746034</v>
+        <v>10.58401961648662</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.96054651868722</v>
+        <v>10.43749288046247</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.03384393382594</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.39814444114699</v>
+        <v>10.39680349153863</v>
       </c>
       <c r="C5">
-        <v>7.608468508728166</v>
+        <v>7.946508357040821</v>
       </c>
       <c r="D5">
-        <v>4.724769326695241</v>
+        <v>4.720531448291868</v>
       </c>
       <c r="E5">
-        <v>12.72265955535465</v>
+        <v>12.67707467398702</v>
       </c>
       <c r="F5">
-        <v>23.17146980700957</v>
+        <v>21.8434486977178</v>
       </c>
       <c r="G5">
-        <v>31.9529093472758</v>
+        <v>29.25450242531799</v>
       </c>
       <c r="I5">
-        <v>3.241328138693726</v>
+        <v>3.062934335343065</v>
       </c>
       <c r="J5">
-        <v>11.20954084481599</v>
+        <v>10.94471617229783</v>
       </c>
       <c r="K5">
-        <v>17.66905720197148</v>
+        <v>16.47672750907019</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.92490412732615</v>
       </c>
       <c r="M5">
-        <v>10.12624776477393</v>
+        <v>10.56566449271513</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.70653143513514</v>
+        <v>10.26520860010078</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.77886137899647</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.36128591597228</v>
+        <v>10.36231358278627</v>
       </c>
       <c r="C6">
-        <v>7.596178897467469</v>
+        <v>7.929217706695532</v>
       </c>
       <c r="D6">
-        <v>4.724086304929499</v>
+        <v>4.718488891342145</v>
       </c>
       <c r="E6">
-        <v>12.68397174576538</v>
+        <v>12.63910267968312</v>
       </c>
       <c r="F6">
-        <v>23.12265173270474</v>
+        <v>21.8038684678623</v>
       </c>
       <c r="G6">
-        <v>31.87269538872826</v>
+        <v>29.19334744003136</v>
       </c>
       <c r="I6">
-        <v>3.255231060538727</v>
+        <v>3.076220132168104</v>
       </c>
       <c r="J6">
-        <v>11.19938688141394</v>
+        <v>10.93549998610353</v>
       </c>
       <c r="K6">
-        <v>17.64737321092933</v>
+        <v>16.46241538726646</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.91622427239025</v>
       </c>
       <c r="M6">
-        <v>10.09938722962978</v>
+        <v>10.5546638901822</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.66468451866349</v>
+        <v>10.23788257891035</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.73679258854017</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.5900927979787</v>
+        <v>10.57834634524101</v>
       </c>
       <c r="C7">
-        <v>7.769405688747422</v>
+        <v>8.128649759230925</v>
       </c>
       <c r="D7">
-        <v>4.741472042823191</v>
+        <v>4.750851463329055</v>
       </c>
       <c r="E7">
-        <v>12.94086837682459</v>
+        <v>12.89254998656442</v>
       </c>
       <c r="F7">
-        <v>23.29347779043078</v>
+        <v>21.8984789346725</v>
       </c>
       <c r="G7">
-        <v>32.12723855797541</v>
+        <v>29.40597431947279</v>
       </c>
       <c r="I7">
-        <v>3.191300825616778</v>
+        <v>3.022598864978897</v>
       </c>
       <c r="J7">
-        <v>11.21429515101924</v>
+        <v>10.90064590843054</v>
       </c>
       <c r="K7">
-        <v>17.67151188528659</v>
+        <v>16.43713281166395</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.87012732846869</v>
       </c>
       <c r="M7">
-        <v>10.29860327209649</v>
+        <v>10.55020817485193</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.95925996759445</v>
+        <v>10.43745359239983</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.0314717939368</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.5497230627268</v>
+        <v>11.48265693203641</v>
       </c>
       <c r="C8">
-        <v>8.478047417575841</v>
+        <v>8.962651114044567</v>
       </c>
       <c r="D8">
-        <v>4.812679797093474</v>
+        <v>4.881192855018056</v>
       </c>
       <c r="E8">
-        <v>14.04477488494614</v>
+        <v>13.98082591412841</v>
       </c>
       <c r="F8">
-        <v>24.10150241279531</v>
+        <v>22.42884084573875</v>
       </c>
       <c r="G8">
-        <v>33.34046567041006</v>
+        <v>30.3114934718418</v>
       </c>
       <c r="I8">
-        <v>2.911133536960498</v>
+        <v>2.783950223529928</v>
       </c>
       <c r="J8">
-        <v>11.30401508597379</v>
+        <v>10.86818136733357</v>
       </c>
       <c r="K8">
-        <v>17.82292324085725</v>
+        <v>16.39602352284342</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.71983873546229</v>
       </c>
       <c r="M8">
-        <v>11.13137135123851</v>
+        <v>10.61676936113508</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.19038738862526</v>
+        <v>11.27618755407457</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.26441898532924</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.23691298945167</v>
+        <v>13.07089688716694</v>
       </c>
       <c r="C9">
-        <v>9.721233721090409</v>
+        <v>10.44693959485136</v>
       </c>
       <c r="D9">
-        <v>4.938721394261304</v>
+        <v>5.109394184272569</v>
       </c>
       <c r="E9">
-        <v>16.14385818714782</v>
+        <v>16.06014807661568</v>
       </c>
       <c r="F9">
-        <v>25.77646663932641</v>
+        <v>23.66658797367799</v>
       </c>
       <c r="G9">
-        <v>35.85777435273932</v>
+        <v>32.06080825403445</v>
       </c>
       <c r="I9">
-        <v>2.569157860233782</v>
+        <v>2.628622993854062</v>
       </c>
       <c r="J9">
-        <v>11.53745116147534</v>
+        <v>11.01105095170588</v>
       </c>
       <c r="K9">
-        <v>18.21507461908928</v>
+        <v>16.44919522764903</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.49981050785837</v>
       </c>
       <c r="M9">
-        <v>12.60401719441325</v>
+        <v>10.98959611997279</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.36424055482415</v>
+        <v>12.76559385368994</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.44152974365197</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.34801654031635</v>
+        <v>14.12419140988135</v>
       </c>
       <c r="C10">
-        <v>10.58493051819064</v>
+        <v>11.42866781626121</v>
       </c>
       <c r="D10">
-        <v>5.029732526832412</v>
+        <v>5.29337638626377</v>
       </c>
       <c r="E10">
-        <v>17.73684583820524</v>
+        <v>17.63940405180089</v>
       </c>
       <c r="F10">
-        <v>26.97555280435868</v>
+        <v>24.41481397343274</v>
       </c>
       <c r="G10">
-        <v>37.63939863967965</v>
+        <v>33.66110611476649</v>
       </c>
       <c r="I10">
-        <v>2.925455149918104</v>
+        <v>2.932451404132373</v>
       </c>
       <c r="J10">
-        <v>11.71807385354255</v>
+        <v>10.84461242130006</v>
       </c>
       <c r="K10">
-        <v>18.5009329440008</v>
+        <v>16.40052419430597</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.25548487053897</v>
       </c>
       <c r="M10">
-        <v>13.59378181337611</v>
+        <v>11.27270209698501</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.82108218091713</v>
+        <v>13.75650608064979</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.89351521957693</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.81737411624543</v>
+        <v>14.58054617733784</v>
       </c>
       <c r="C11">
-        <v>10.99777545802771</v>
+        <v>11.82749210759019</v>
       </c>
       <c r="D11">
-        <v>5.077575115301695</v>
+        <v>5.418628376409855</v>
       </c>
       <c r="E11">
-        <v>18.42873237772547</v>
+        <v>18.33012491176015</v>
       </c>
       <c r="F11">
-        <v>27.44568654799201</v>
+        <v>24.44122954981887</v>
       </c>
       <c r="G11">
-        <v>38.31419436663074</v>
+        <v>34.84111619758751</v>
       </c>
       <c r="I11">
-        <v>3.088988124687176</v>
+        <v>3.06948779705008</v>
       </c>
       <c r="J11">
-        <v>11.77765113765592</v>
+        <v>10.3005237213114</v>
       </c>
       <c r="K11">
-        <v>18.57430577490741</v>
+        <v>16.18227110339786</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.00714815844339</v>
       </c>
       <c r="M11">
-        <v>14.0293038585149</v>
+        <v>11.2527007821167</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.45644026842298</v>
+        <v>14.17694084312259</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.51858303889443</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.99636803587939</v>
+        <v>14.75570866521321</v>
       </c>
       <c r="C12">
-        <v>11.13416977416486</v>
+        <v>11.95123326340395</v>
       </c>
       <c r="D12">
-        <v>5.091749020868584</v>
+        <v>5.46589884628956</v>
       </c>
       <c r="E12">
-        <v>18.68858030445641</v>
+        <v>18.58987053012796</v>
       </c>
       <c r="F12">
-        <v>27.66260117494225</v>
+        <v>24.45700271141245</v>
       </c>
       <c r="G12">
-        <v>38.63862475978177</v>
+        <v>35.42215332531115</v>
       </c>
       <c r="I12">
-        <v>3.148296199361346</v>
+        <v>3.117277723735302</v>
       </c>
       <c r="J12">
-        <v>11.81515535565605</v>
+        <v>10.05914036517112</v>
       </c>
       <c r="K12">
-        <v>18.63528215244367</v>
+        <v>16.10930938569113</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.92066871553249</v>
       </c>
       <c r="M12">
-        <v>14.18820367888865</v>
+        <v>11.25432095841684</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.69153726433579</v>
+        <v>14.32859950497583</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.74895397540723</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.95898469567015</v>
+        <v>14.71899573991955</v>
       </c>
       <c r="C13">
-        <v>11.10133120367212</v>
+        <v>11.92150065280383</v>
       </c>
       <c r="D13">
-        <v>5.087925612155489</v>
+        <v>5.454559821369231</v>
       </c>
       <c r="E13">
-        <v>18.63317450171421</v>
+        <v>18.5344313744219</v>
       </c>
       <c r="F13">
-        <v>27.62368338069653</v>
+        <v>24.46194162638123</v>
       </c>
       <c r="G13">
-        <v>38.58260986829105</v>
+        <v>35.30650503823826</v>
       </c>
       <c r="I13">
-        <v>3.135041189691651</v>
+        <v>3.10628801758931</v>
       </c>
       <c r="J13">
-        <v>11.80990786663983</v>
+        <v>10.11522997961874</v>
       </c>
       <c r="K13">
-        <v>18.62861910801014</v>
+        <v>16.13127323430081</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.94351158777925</v>
       </c>
       <c r="M13">
-        <v>14.15350229997019</v>
+        <v>11.25913391302292</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.64083632320822</v>
+        <v>14.29556259240601</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.69932463788168</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.83260298746656</v>
+        <v>14.59539220670846</v>
       </c>
       <c r="C14">
-        <v>11.00751490316943</v>
+        <v>11.83636030206925</v>
       </c>
       <c r="D14">
-        <v>5.078414013745537</v>
+        <v>5.42202336921041</v>
       </c>
       <c r="E14">
-        <v>18.45035301828592</v>
+        <v>18.35171293060044</v>
       </c>
       <c r="F14">
-        <v>27.46686349616434</v>
+        <v>24.44611920379557</v>
       </c>
       <c r="G14">
-        <v>38.34680685704269</v>
+        <v>34.89289867462239</v>
       </c>
       <c r="I14">
-        <v>3.093652558065298</v>
+        <v>3.073112736606467</v>
       </c>
       <c r="J14">
-        <v>11.78194098622102</v>
+        <v>10.28249793356661</v>
       </c>
       <c r="K14">
-        <v>18.5820761955673</v>
+        <v>16.17895422426594</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.00185530137188</v>
       </c>
       <c r="M14">
-        <v>14.04217443507</v>
+        <v>11.25504471299213</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.47575645547364</v>
+        <v>14.18926251440319</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>18.53753448037562</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.7527023155332</v>
+        <v>14.51756483538041</v>
       </c>
       <c r="C15">
-        <v>10.95690992247687</v>
+        <v>11.7900067516282</v>
       </c>
       <c r="D15">
-        <v>5.074100856926276</v>
+        <v>5.404540511217724</v>
       </c>
       <c r="E15">
-        <v>18.33708595601253</v>
+        <v>18.23864032142027</v>
       </c>
       <c r="F15">
-        <v>27.3552648905021</v>
+        <v>24.41858525457765</v>
       </c>
       <c r="G15">
-        <v>38.17472693654481</v>
+        <v>34.6236082484506</v>
       </c>
       <c r="I15">
-        <v>3.069367338837699</v>
+        <v>3.054280979610215</v>
       </c>
       <c r="J15">
-        <v>11.75923804597801</v>
+        <v>10.37462253300558</v>
       </c>
       <c r="K15">
-        <v>18.54079859582832</v>
+        <v>16.1949957039553</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.02864466400676</v>
       </c>
       <c r="M15">
-        <v>13.97482021226411</v>
+        <v>11.24177076497625</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.37460711299055</v>
+        <v>14.12470723163178</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.43825432543954</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.2996746216596</v>
+        <v>14.07837487024747</v>
       </c>
       <c r="C16">
-        <v>10.6188044927182</v>
+        <v>11.4617551739608</v>
       </c>
       <c r="D16">
-        <v>5.039369428502862</v>
+        <v>5.301073242788607</v>
       </c>
       <c r="E16">
-        <v>17.68453634011396</v>
+        <v>17.58780891305875</v>
       </c>
       <c r="F16">
-        <v>26.81244775540894</v>
+        <v>24.28959099081175</v>
       </c>
       <c r="G16">
-        <v>37.35982860485935</v>
+        <v>33.37866558789708</v>
       </c>
       <c r="I16">
-        <v>2.923145680042984</v>
+        <v>2.935473295938373</v>
       </c>
       <c r="J16">
-        <v>11.66629540723823</v>
+        <v>10.83355063314002</v>
       </c>
       <c r="K16">
-        <v>18.38718409237904</v>
+        <v>16.32001537850751</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.20550053177914</v>
       </c>
       <c r="M16">
-        <v>13.57536264942558</v>
+        <v>11.19628581458622</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.78338935717738</v>
+        <v>13.73827642330731</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.85610514518049</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.01487797327518</v>
+        <v>13.80473985060226</v>
       </c>
       <c r="C17">
-        <v>10.40823539744787</v>
+        <v>11.24347488384632</v>
       </c>
       <c r="D17">
-        <v>5.017791399557484</v>
+        <v>5.244777950060218</v>
       </c>
       <c r="E17">
-        <v>17.27678907646201</v>
+        <v>17.18205427725087</v>
       </c>
       <c r="F17">
-        <v>26.4787134566355</v>
+        <v>24.15838750933451</v>
       </c>
       <c r="G17">
-        <v>36.85809022509856</v>
+        <v>32.73663137542015</v>
       </c>
       <c r="I17">
-        <v>2.833113274066459</v>
+        <v>2.861396480893421</v>
       </c>
       <c r="J17">
-        <v>11.61048066083132</v>
+        <v>11.02411720499607</v>
       </c>
       <c r="K17">
-        <v>18.29432139966771</v>
+        <v>16.36608787567002</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.2929250103545</v>
       </c>
       <c r="M17">
-        <v>13.32510586433736</v>
+        <v>11.14608712028063</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.41315736667979</v>
+        <v>13.49289413854786</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.48977933478363</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.85386534993384</v>
+        <v>13.65066349034586</v>
       </c>
       <c r="C18">
-        <v>10.26682746548437</v>
+        <v>11.09266195743695</v>
       </c>
       <c r="D18">
-        <v>5.001397707492978</v>
+        <v>5.210286066204064</v>
       </c>
       <c r="E18">
-        <v>17.0415302698253</v>
+        <v>16.94812304578974</v>
       </c>
       <c r="F18">
-        <v>26.32736606992141</v>
+        <v>24.10099867635577</v>
       </c>
       <c r="G18">
-        <v>36.6416075684082</v>
+        <v>32.47712502171717</v>
       </c>
       <c r="I18">
-        <v>2.777481584913164</v>
+        <v>2.813317514714671</v>
       </c>
       <c r="J18">
-        <v>11.59344856703521</v>
+        <v>11.11182803643495</v>
       </c>
       <c r="K18">
-        <v>18.27464170213609</v>
+        <v>16.40995711143948</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.35557508267888</v>
       </c>
       <c r="M18">
-        <v>13.17599291356572</v>
+        <v>11.13250122968813</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.19601957783558</v>
+        <v>13.34559430796916</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.27435735339495</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.79480791813725</v>
+        <v>13.59447033447557</v>
       </c>
       <c r="C19">
-        <v>10.23345878162437</v>
+        <v>11.05508964701901</v>
       </c>
       <c r="D19">
-        <v>4.998823406615779</v>
+        <v>5.202544921604364</v>
       </c>
       <c r="E19">
-        <v>16.95983002188546</v>
+        <v>16.86706922868493</v>
       </c>
       <c r="F19">
-        <v>26.24463160979274</v>
+        <v>24.04996860642919</v>
       </c>
       <c r="G19">
-        <v>36.5122037009452</v>
+        <v>32.34556691486829</v>
       </c>
       <c r="I19">
-        <v>2.761392037933488</v>
+        <v>2.800697282180989</v>
       </c>
       <c r="J19">
-        <v>11.57647325357328</v>
+        <v>11.12595701906798</v>
       </c>
       <c r="K19">
-        <v>18.24243979607481</v>
+        <v>16.40118120371788</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.35993636809062</v>
       </c>
       <c r="M19">
-        <v>13.127682495606</v>
+        <v>11.10891069407307</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.12308942839203</v>
+        <v>13.29756072341424</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.20183744193843</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.04587124532912</v>
+        <v>13.8344089412907</v>
       </c>
       <c r="C20">
-        <v>10.42928906948676</v>
+        <v>11.26589412909776</v>
       </c>
       <c r="D20">
-        <v>5.019792977967706</v>
+        <v>5.250150471357435</v>
       </c>
       <c r="E20">
-        <v>17.32063794719533</v>
+        <v>17.22564081873515</v>
       </c>
       <c r="F20">
-        <v>26.51744572467005</v>
+        <v>24.17718043866656</v>
       </c>
       <c r="G20">
-        <v>36.91722753349152</v>
+        <v>32.80560802419574</v>
       </c>
       <c r="I20">
-        <v>2.842418212034078</v>
+        <v>2.868935523244008</v>
       </c>
       <c r="J20">
-        <v>11.61752174217039</v>
+        <v>11.00835150914537</v>
       </c>
       <c r="K20">
-        <v>18.30675471741344</v>
+        <v>16.36452768901046</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.28598499030445</v>
       </c>
       <c r="M20">
-        <v>13.35169143914489</v>
+        <v>11.15404153057478</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.45275031597642</v>
+        <v>13.51909479991866</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.5290265512861</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.86422304243639</v>
+        <v>14.63060623436171</v>
       </c>
       <c r="C21">
-        <v>11.05507704126425</v>
+        <v>11.85875161681273</v>
       </c>
       <c r="D21">
-        <v>5.085573023314667</v>
+        <v>5.448970602501833</v>
       </c>
       <c r="E21">
-        <v>18.50203811245004</v>
+        <v>18.40527674968718</v>
       </c>
       <c r="F21">
-        <v>27.46922989856636</v>
+        <v>24.32295286639436</v>
       </c>
       <c r="G21">
-        <v>38.33847608393248</v>
+        <v>35.1434562751043</v>
       </c>
       <c r="I21">
-        <v>3.108919263119279</v>
+        <v>3.085584153541048</v>
       </c>
       <c r="J21">
-        <v>11.77409796502824</v>
+        <v>10.0697090205337</v>
       </c>
       <c r="K21">
-        <v>18.55926527448227</v>
+        <v>16.08236446129214</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.92839777292034</v>
       </c>
       <c r="M21">
-        <v>14.07838129619666</v>
+        <v>11.18733951339151</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.52578722699975</v>
+        <v>14.21861558636401</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.58398753707301</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.38379542317488</v>
+        <v>15.13746605403697</v>
       </c>
       <c r="C22">
-        <v>11.42859516708911</v>
+        <v>12.20476984348665</v>
       </c>
       <c r="D22">
-        <v>5.122124560656548</v>
+        <v>5.577718089143594</v>
       </c>
       <c r="E22">
-        <v>19.25304518213454</v>
+        <v>19.15497007929726</v>
       </c>
       <c r="F22">
-        <v>28.14391923539327</v>
+        <v>24.44217116966005</v>
       </c>
       <c r="G22">
-        <v>39.35929632971663</v>
+        <v>36.83751918227006</v>
       </c>
       <c r="I22">
-        <v>3.277975021578282</v>
+        <v>3.220881385675195</v>
       </c>
       <c r="J22">
-        <v>11.90080297577454</v>
+        <v>9.457697697367024</v>
       </c>
       <c r="K22">
-        <v>18.77516045112857</v>
+        <v>15.91963920555269</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.71242252609137</v>
       </c>
       <c r="M22">
-        <v>14.53200475459894</v>
+        <v>11.23558799298266</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.20093305886249</v>
+        <v>14.65358903597701</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.24640032568086</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.11522386046986</v>
+        <v>14.87214546302082</v>
       </c>
       <c r="C23">
-        <v>11.2063525915246</v>
+        <v>12.01345294877147</v>
       </c>
       <c r="D23">
-        <v>5.097449916147193</v>
+        <v>5.493487309996144</v>
       </c>
       <c r="E23">
-        <v>18.85688757343256</v>
+        <v>18.75810303691973</v>
       </c>
       <c r="F23">
-        <v>27.83645420219252</v>
+        <v>24.48941050088457</v>
       </c>
       <c r="G23">
-        <v>38.90801607045039</v>
+        <v>35.87233133703671</v>
       </c>
       <c r="I23">
-        <v>3.184578490955836</v>
+        <v>3.145040572984693</v>
       </c>
       <c r="J23">
-        <v>11.8520839974891</v>
+        <v>9.900742422280237</v>
       </c>
       <c r="K23">
-        <v>18.70334776771596</v>
+        <v>16.08095560046912</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.87772906518817</v>
       </c>
       <c r="M23">
-        <v>14.28734929485652</v>
+        <v>11.27143068735596</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.84109172628746</v>
+        <v>14.42275244216481</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.89527408589127</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.04303498588666</v>
+        <v>13.83121579476699</v>
       </c>
       <c r="C24">
-        <v>10.37981852961629</v>
+        <v>11.21618960532061</v>
       </c>
       <c r="D24">
-        <v>5.010689052117423</v>
+        <v>5.238001366441892</v>
       </c>
       <c r="E24">
-        <v>17.30507948585577</v>
+        <v>17.20983288115194</v>
       </c>
       <c r="F24">
-        <v>26.58574633447061</v>
+        <v>24.2462138912191</v>
       </c>
       <c r="G24">
-        <v>37.04322316101604</v>
+        <v>32.91358648273955</v>
       </c>
       <c r="I24">
-        <v>2.831554062231263</v>
+        <v>2.856344173780198</v>
       </c>
       <c r="J24">
-        <v>11.64522837428244</v>
+        <v>11.04172688639002</v>
       </c>
       <c r="K24">
-        <v>18.37131298294708</v>
+        <v>16.42488551599419</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.33133953567827</v>
       </c>
       <c r="M24">
-        <v>13.33286250416369</v>
+        <v>11.19913404724737</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.43195539553408</v>
+        <v>13.50080934860472</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.50856410706982</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.7908934358396</v>
+        <v>12.64942366184908</v>
       </c>
       <c r="C25">
-        <v>9.437680652965737</v>
+        <v>10.11187352150332</v>
       </c>
       <c r="D25">
-        <v>4.913043101274392</v>
+        <v>5.053275871177775</v>
       </c>
       <c r="E25">
-        <v>15.54332873372564</v>
+        <v>15.45722446117521</v>
       </c>
       <c r="F25">
-        <v>25.23680770302311</v>
+        <v>23.2891273115748</v>
       </c>
       <c r="G25">
-        <v>35.02451969315835</v>
+        <v>31.35802560554245</v>
       </c>
       <c r="I25">
-        <v>2.542955876462026</v>
+        <v>2.522906987596749</v>
       </c>
       <c r="J25">
-        <v>11.44067613449853</v>
+        <v>11.01273528684754</v>
       </c>
       <c r="K25">
-        <v>18.03654353494892</v>
+        <v>16.39467193656196</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.53314778418647</v>
       </c>
       <c r="M25">
-        <v>12.22920852128948</v>
+        <v>10.84221622947759</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.80432133165485</v>
+        <v>12.38856505037906</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.88214159976397</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
